--- a/Code/Data Loading and Cleaning/All Data/all_data_with_NLP_features_columns_before_drop_of_missing.xlsx
+++ b/Code/Data Loading and Cleaning/All Data/all_data_with_NLP_features_columns_before_drop_of_missing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A163"/>
+  <dimension ref="A1:A161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,1097 +478,1083 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rating Rank AAA is 10</t>
+          <t>Next Rating</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Next Rating</t>
+          <t>Next Rating Date</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Next Rating Date</t>
+          <t>Previous Rating</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Previous Rating</t>
+          <t>Previous Rating Date</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Previous Rating Date</t>
+          <t>next_rating_date_or_end_of_data</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>next_rating_date_or_end_of_data</t>
+          <t>credit_rating_year</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>credit_rating_year</t>
+          <t>previous_fixed_quarter_date</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>previous_fixed_quarter_date</t>
+          <t>days_since_call_on_fixed_quarter</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>days_since_call_on_fixed_quarter</t>
+          <t>days_since_rating</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>days_since_rating</t>
+          <t>for_quarter</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>for_quarter</t>
+          <t>for_year</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>for_year</t>
+          <t>transcript</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>transcript</t>
+          <t>reportedCurrency</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>reportedCurrency</t>
+          <t>acceptedDate_balance_sheet</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>acceptedDate_balance_sheet</t>
+          <t>cashAndCashEquivalents</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>cashAndCashEquivalents</t>
+          <t>shortTermInvestments</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>shortTermInvestments</t>
+          <t>cashAndShortTermInvestments</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>cashAndShortTermInvestments</t>
+          <t>netReceivables</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>netReceivables</t>
+          <t>inventory_balance_sheet</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>inventory_balance_sheet</t>
+          <t>otherCurrentAssets</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>otherCurrentAssets</t>
+          <t>totalCurrentAssets</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>totalCurrentAssets</t>
+          <t>propertyPlantEquipmentNet</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>propertyPlantEquipmentNet</t>
+          <t>goodwill</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>goodwill</t>
+          <t>intangibleAssets</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>intangibleAssets</t>
+          <t>goodwillAndIntangibleAssets</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>goodwillAndIntangibleAssets</t>
+          <t>longTermInvestments</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>longTermInvestments</t>
+          <t>taxAssets</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>taxAssets</t>
+          <t>otherNonCurrentAssets</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>otherNonCurrentAssets</t>
+          <t>totalNonCurrentAssets</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>totalNonCurrentAssets</t>
+          <t>otherAssets</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>otherAssets</t>
+          <t>totalAssets</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>totalAssets</t>
+          <t>accountPayables</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>accountPayables</t>
+          <t>shortTermDebt</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>shortTermDebt</t>
+          <t>taxPayables</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>taxPayables</t>
+          <t>deferredRevenue</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>deferredRevenue</t>
+          <t>otherCurrentLiabilities</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>otherCurrentLiabilities</t>
+          <t>totalCurrentLiabilities</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>totalCurrentLiabilities</t>
+          <t>longTermDebt</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>longTermDebt</t>
+          <t>deferredRevenueNonCurrent</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>deferredRevenueNonCurrent</t>
+          <t>deferredTaxLiabilitiesNonCurrent</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>deferredTaxLiabilitiesNonCurrent</t>
+          <t>otherNonCurrentLiabilities</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>otherNonCurrentLiabilities</t>
+          <t>totalNonCurrentLiabilities</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>totalNonCurrentLiabilities</t>
+          <t>otherLiabilities</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>otherLiabilities</t>
+          <t>capitalLeaseObligations</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>capitalLeaseObligations</t>
+          <t>totalLiabilities</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>totalLiabilities</t>
+          <t>preferredStock</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>preferredStock</t>
+          <t>commonStock</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>commonStock</t>
+          <t>retainedEarnings</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>retainedEarnings</t>
+          <t>accumulatedOtherComprehensiveIncomeLoss</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>accumulatedOtherComprehensiveIncomeLoss</t>
+          <t>othertotalStockholdersEquity</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>othertotalStockholdersEquity</t>
+          <t>totalStockholdersEquity</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>totalStockholdersEquity</t>
+          <t>totalEquity</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>totalEquity</t>
+          <t>totalLiabilitiesAndStockholdersEquity</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>totalLiabilitiesAndStockholdersEquity</t>
+          <t>minorityInterest</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>minorityInterest</t>
+          <t>totalLiabilitiesAndTotalEquity</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>totalLiabilitiesAndTotalEquity</t>
+          <t>totalInvestments</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>totalInvestments</t>
+          <t>totalDebt</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>totalDebt</t>
+          <t>netDebt</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>netDebt</t>
+          <t>acceptedDate_cash_flow_statement</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>acceptedDate_cash_flow_statement</t>
+          <t>netIncome_cash_flow_statement</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>netIncome_cash_flow_statement</t>
+          <t>depreciationAndAmortization_cash_flow_statement</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>depreciationAndAmortization_cash_flow_statement</t>
+          <t>deferredIncomeTax</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>deferredIncomeTax</t>
+          <t>stockBasedCompensation</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>stockBasedCompensation</t>
+          <t>changeInWorkingCapital</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>changeInWorkingCapital</t>
+          <t>accountsReceivables</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>accountsReceivables</t>
+          <t>inventory_cash_flow_statement</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>inventory_cash_flow_statement</t>
+          <t>accountsPayables</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>accountsPayables</t>
+          <t>otherWorkingCapital</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>otherWorkingCapital</t>
+          <t>otherNonCashItems</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>otherNonCashItems</t>
+          <t>netCashProvidedByOperatingActivities</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>netCashProvidedByOperatingActivities</t>
+          <t>investmentsInPropertyPlantAndEquipment</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>investmentsInPropertyPlantAndEquipment</t>
+          <t>acquisitionsNet</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>acquisitionsNet</t>
+          <t>purchasesOfInvestments</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>purchasesOfInvestments</t>
+          <t>salesMaturitiesOfInvestments</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>salesMaturitiesOfInvestments</t>
+          <t>otherInvestingActivites</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>otherInvestingActivites</t>
+          <t>netCashUsedForInvestingActivites</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>netCashUsedForInvestingActivites</t>
+          <t>debtRepayment</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>debtRepayment</t>
+          <t>commonStockIssued</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>commonStockIssued</t>
+          <t>commonStockRepurchased</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>commonStockRepurchased</t>
+          <t>dividendsPaid</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>dividendsPaid</t>
+          <t>otherFinancingActivites</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>otherFinancingActivites</t>
+          <t>netCashUsedProvidedByFinancingActivities</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>netCashUsedProvidedByFinancingActivities</t>
+          <t>effectOfForexChangesOnCash</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>effectOfForexChangesOnCash</t>
+          <t>netChangeInCash</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>netChangeInCash</t>
+          <t>cashAtEndOfPeriod</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>cashAtEndOfPeriod</t>
+          <t>cashAtBeginningOfPeriod</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>cashAtBeginningOfPeriod</t>
+          <t>operatingCashFlow</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>operatingCashFlow</t>
+          <t>capitalExpenditure</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>capitalExpenditure</t>
+          <t>freeCashFlow</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>freeCashFlow</t>
+          <t>acceptedDate_income_statement</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>acceptedDate_income_statement</t>
+          <t>revenue</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>revenue</t>
+          <t>costOfRevenue</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>costOfRevenue</t>
+          <t>grossProfit</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>grossProfit</t>
+          <t>grossProfitRatio</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>grossProfitRatio</t>
+          <t>researchAndDevelopmentExpenses</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>researchAndDevelopmentExpenses</t>
+          <t>generalAndAdministrativeExpenses</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>generalAndAdministrativeExpenses</t>
+          <t>sellingAndMarketingExpenses</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>sellingAndMarketingExpenses</t>
+          <t>sellingGeneralAndAdministrativeExpenses</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>sellingGeneralAndAdministrativeExpenses</t>
+          <t>otherExpenses</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>otherExpenses</t>
+          <t>operatingExpenses</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>operatingExpenses</t>
+          <t>costAndExpenses</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>costAndExpenses</t>
+          <t>interestIncome</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>interestIncome</t>
+          <t>interestExpense</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>interestExpense</t>
+          <t>depreciationAndAmortization_income_statement</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>depreciationAndAmortization_income_statement</t>
+          <t>ebitda</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ebitda</t>
+          <t>ebitdaratio</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ebitdaratio</t>
+          <t>operatingIncome</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>operatingIncome</t>
+          <t>operatingIncomeRatio</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>operatingIncomeRatio</t>
+          <t>totalOtherIncomeExpensesNet</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>totalOtherIncomeExpensesNet</t>
+          <t>incomeBeforeTax</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>incomeBeforeTax</t>
+          <t>incomeBeforeTaxRatio</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>incomeBeforeTaxRatio</t>
+          <t>incomeTaxExpense</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>incomeTaxExpense</t>
+          <t>netIncome_income_statement</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>netIncome_income_statement</t>
+          <t>netIncomeRatio</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>netIncomeRatio</t>
+          <t>eps</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>eps</t>
+          <t>epsdiluted</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>epsdiluted</t>
+          <t>weightedAverageShsOut</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>weightedAverageShsOut</t>
+          <t>weightedAverageShsOutDil</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>weightedAverageShsOutDil</t>
+          <t>financial_statement_date</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>financial_statement_date</t>
+          <t>marketCap</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>marketCap</t>
+          <t>EBIT</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>EBIT</t>
+          <t>common_plus_preferred_stock</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>common_plus_preferred_stock</t>
+          <t>workingCapital</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>workingCapital</t>
+          <t>Ratio_A</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Ratio_A</t>
+          <t>Ratio_B</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Ratio_B</t>
+          <t>Ratio_C</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ratio_C</t>
+          <t>Ratio_D</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Ratio_D</t>
+          <t>Ratio_E</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Ratio_E</t>
+          <t>Altman_Z</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Altman_Z</t>
+          <t>filingDate</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>filingDate</t>
+          <t>rating_on_previous_fixed_quarter_date</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>rating_on_previous_fixed_quarter_date</t>
+          <t>Investment_Grade</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Investment_Grade</t>
+          <t>Change Direction Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>rating_on_previous_fixed_quarter_date AAA is 10</t>
+          <t>Change Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Change Direction Since Last Fixed Quarter Date</t>
+          <t>Sector</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Change Since Last Fixed Quarter Date</t>
+          <t>train_test_80_20</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>num_transparency</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>train_test_80_20</t>
+          <t>gf_score</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>num_transparency</t>
+          <t>readability</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>gf_score</t>
+          <t>word_count</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>readability</t>
+          <t>num_questions</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>word_count</t>
+          <t>pos_score</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>num_questions</t>
+          <t>Positiv</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>pos_score</t>
+          <t>Negativ</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Positiv</t>
+          <t>Strong</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Negativ</t>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Strong</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Passive</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Ovrst</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Passive</t>
+          <t>Undrst</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Ovrst</t>
+          <t>PN</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Undrst</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PN</t>
+          <t>AP</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>OU</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>OU</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
         <is>
           <t>TONE1</t>
         </is>

--- a/Code/Data Loading and Cleaning/All Data/all_data_with_NLP_features_columns_before_drop_of_missing.xlsx
+++ b/Code/Data Loading and Cleaning/All Data/all_data_with_NLP_features_columns_before_drop_of_missing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A161"/>
+  <dimension ref="A1:A160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1444,117 +1444,110 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>readability</t>
+          <t>word_count</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>word_count</t>
+          <t>num_questions</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>num_questions</t>
+          <t>pos_score</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>pos_score</t>
+          <t>Positiv</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Positiv</t>
+          <t>Negativ</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Negativ</t>
+          <t>Strong</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Strong</t>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Passive</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Passive</t>
+          <t>Ovrst</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Ovrst</t>
+          <t>Undrst</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Undrst</t>
+          <t>PN</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PN</t>
+          <t>SW</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>AP</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>OU</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
-        <is>
-          <t>OU</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
         <is>
           <t>TONE1</t>
         </is>

--- a/Code/Data Loading and Cleaning/All Data/all_data_with_NLP_features_columns_before_drop_of_missing.xlsx
+++ b/Code/Data Loading and Cleaning/All Data/all_data_with_NLP_features_columns_before_drop_of_missing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A160"/>
+  <dimension ref="A1:A172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1423,133 +1423,217 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>train_test_80_20</t>
+          <t>Altman_Z_diff</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>num_transparency</t>
+          <t>Ratio_A_diff</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>gf_score</t>
+          <t>Ratio_B_diff</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>word_count</t>
+          <t>Ratio_C_diff</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>num_questions</t>
+          <t>Ratio_D_diff</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>pos_score</t>
+          <t>Ratio_E_diff</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Positiv</t>
+          <t>grossProfitRatio_diff</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Negativ</t>
+          <t>ebitdaratio_diff</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Strong</t>
+          <t>operatingIncomeRatio_diff</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>incomeBeforeTaxRatio_diff</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>netIncomeRatio_diff</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Passive</t>
+          <t>num_transparency</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Ovrst</t>
+          <t>gf_score</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Undrst</t>
+          <t>word_count</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PN</t>
+          <t>num_questions</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>pos_score</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>Positiv</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>Negativ</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
+          <t>Strong</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Passive</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Ovrst</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Undrst</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>PN</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
           <t>TONE1</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>num_q_by_len</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>pos_score_finbert</t>
         </is>
       </c>
     </row>

--- a/Code/Data Loading and Cleaning/All Data/all_data_with_NLP_features_columns_before_drop_of_missing.xlsx
+++ b/Code/Data Loading and Cleaning/All Data/all_data_with_NLP_features_columns_before_drop_of_missing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A172"/>
+  <dimension ref="A1:A205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1388,252 +1388,483 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>rating_on_previous_fixed_quarter_date</t>
+          <t>currentRatio</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Investment_Grade</t>
+          <t>quickRatio</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Change Direction Since Last Fixed Quarter Date</t>
+          <t>cashRatio</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Change Since Last Fixed Quarter Date</t>
+          <t>returnOnAssets</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>returnOnEquity</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Altman_Z_diff</t>
+          <t>returnOnCapitalEmployed</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Ratio_A_diff</t>
+          <t>EBITtoRevenue</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ratio_B_diff</t>
+          <t>debtRatio</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Ratio_C_diff</t>
+          <t>debtRatioAlt</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Ratio_D_diff</t>
+          <t>debtEquityRatio</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Ratio_E_diff</t>
+          <t>equityMultiplier</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>grossProfitRatio_diff</t>
+          <t>enterpriseValueMultiplier</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ebitdaratio_diff</t>
+          <t>operatingCashFlowPerShare</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>operatingIncomeRatio_diff</t>
+          <t>freeCashFlowPerShare</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>incomeBeforeTaxRatio_diff</t>
+          <t>cashPerShare</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>netIncomeRatio_diff</t>
+          <t>operatingCashFlowToSales</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>num_transparency</t>
+          <t>freeCashFlowToOperatingCashFlow</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>gf_score</t>
+          <t>Altman_Z_diff</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>word_count</t>
+          <t>Ratio_A_diff</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>num_questions</t>
+          <t>Ratio_B_diff</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>pos_score</t>
+          <t>Ratio_C_diff</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Positiv</t>
+          <t>Ratio_D_diff</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Negativ</t>
+          <t>Ratio_E_diff</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Strong</t>
+          <t>grossProfitRatio_diff</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>ebitdaratio_diff</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>operatingIncomeRatio_diff</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Passive</t>
+          <t>incomeBeforeTaxRatio_diff</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Ovrst</t>
+          <t>netIncomeRatio_diff</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Undrst</t>
+          <t>rating_on_previous_fixed_quarter_date</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PN</t>
+          <t>Investment_Grade</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>Change Direction Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>Change Since Last Fixed Quarter Date</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>Sector</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>TONE1</t>
+          <t>currentRatio_diff</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>num_q_by_len</t>
+          <t>quickRatio_diff</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
+          <t>cashRatio_diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>returnOnAssets_diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>returnOnEquity_diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>returnOnCapitalEmployed_diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>EBITtoRevenue_diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>debtRatio_diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>debtRatioAlt_diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>debtEquityRatio_diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>equityMultiplier_diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>enterpriseValueMultiplier_diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>operatingCashFlowPerShare_diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>freeCashFlowPerShare_diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>cashPerShare_diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>operatingCashFlowToSales_diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>freeCashFlowToOperatingCashFlow_diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
           <t>pos_score_finbert</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>num_transparency</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>gf_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>word_count</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>num_questions</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Positiv</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Negativ</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Strong</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Passive</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Ovrst</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Undrst</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>PN</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>tone</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>num_q_by_len</t>
         </is>
       </c>
     </row>
